--- a/xlsx/country_comparison/conjoint_b_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_b_positive.xlsx
@@ -32,16 +32,16 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">Conjoint: C+R vs. &gt;&gt;G+R&lt;&lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: R vs. &gt;&gt;R+C+G&lt;&lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;R+G&lt;&lt; vs. R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;R+C&lt;&lt; vs. R</t>
+    <t xml:space="preserve">Conjoint: C+NR vs. &gt;&gt;GCS+NR&lt;&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjoint: NR vs. &gt;&gt;NR+C+GCS&lt;&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjoint: &gt;&gt;NR+GCS&lt;&lt; vs. NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjoint: &gt;&gt;NR+C&lt;&lt; vs. NR</t>
   </si>
 </sst>
 </file>
@@ -398,19 +398,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.538461538461538</v>
+        <v>0.485714285714286</v>
       </c>
       <c r="C2" t="n">
-        <v>0.444444444444444</v>
+        <v>0.527777777777778</v>
       </c>
       <c r="D2" t="n">
-        <v>0.555555555555556</v>
+        <v>0.65625</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="F2" t="n">
-        <v>0.35</v>
+        <v>0.490683229813665</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.619047619047619</v>
+        <v>0.783783783783784</v>
       </c>
       <c r="C3" t="n">
-        <v>0.625</v>
+        <v>0.703703703703704</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="F3" t="n">
-        <v>0.590909090909091</v>
+        <v>0.538805970149254</v>
       </c>
     </row>
     <row r="4">
@@ -438,19 +438,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.846153846153846</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="C4" t="n">
+        <v>0.808510638297872</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.882352941176471</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.875</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.761904761904762</v>
-      </c>
       <c r="F4" t="n">
-        <v>0.555555555555556</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="5">
@@ -458,19 +458,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="C5" t="n">
-        <v>0.833333333333333</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="D5" t="n">
-        <v>0.833333333333333</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E5" t="n">
-        <v>0.823529411764706</v>
+        <v>0.909090909090909</v>
       </c>
       <c r="F5" t="n">
-        <v>0.411764705882353</v>
+        <v>0.609160305343511</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_b_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_b_positive.xlsx
@@ -398,19 +398,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.485714285714286</v>
+        <v>0.503597122302158</v>
       </c>
       <c r="C2" t="n">
-        <v>0.527777777777778</v>
+        <v>0.563106796116505</v>
       </c>
       <c r="D2" t="n">
-        <v>0.65625</v>
+        <v>0.573643410852713</v>
       </c>
       <c r="E2" t="n">
-        <v>0.461538461538462</v>
+        <v>0.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.490683229813665</v>
+        <v>0.491499227202473</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.783783783783784</v>
+        <v>0.855345911949686</v>
       </c>
       <c r="C3" t="n">
-        <v>0.703703703703704</v>
+        <v>0.735135135135135</v>
       </c>
       <c r="D3" t="n">
-        <v>0.821428571428571</v>
+        <v>0.824427480916031</v>
       </c>
       <c r="E3" t="n">
-        <v>0.857142857142857</v>
+        <v>0.734939759036145</v>
       </c>
       <c r="F3" t="n">
-        <v>0.538805970149254</v>
+        <v>0.537890044576523</v>
       </c>
     </row>
     <row r="4">
@@ -438,19 +438,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.823529411764706</v>
+        <v>0.771428571428571</v>
       </c>
       <c r="C4" t="n">
-        <v>0.808510638297872</v>
+        <v>0.752747252747253</v>
       </c>
       <c r="D4" t="n">
-        <v>0.882352941176471</v>
+        <v>0.783783783783784</v>
       </c>
       <c r="E4" t="n">
-        <v>0.875</v>
+        <v>0.738853503184713</v>
       </c>
       <c r="F4" t="n">
-        <v>0.55</v>
+        <v>0.550375939849624</v>
       </c>
     </row>
     <row r="5">
@@ -458,19 +458,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.861111111111111</v>
+        <v>0.884353741496599</v>
       </c>
       <c r="C5" t="n">
-        <v>0.863636363636364</v>
+        <v>0.809782608695652</v>
       </c>
       <c r="D5" t="n">
-        <v>0.785714285714286</v>
+        <v>0.859259259259259</v>
       </c>
       <c r="E5" t="n">
-        <v>0.909090909090909</v>
+        <v>0.865030674846626</v>
       </c>
       <c r="F5" t="n">
-        <v>0.609160305343511</v>
+        <v>0.609422492401216</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_b_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_b_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -29,19 +35,16 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: C+NR vs. &gt;&gt;GCS+NR&lt;&lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: NR vs. &gt;&gt;NR+C+GCS&lt;&lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;NR+GCS&lt;&lt; vs. NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;NR+C&lt;&lt; vs. NR</t>
+    <t xml:space="preserve">GCS+NR preferred to C+NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR+C+GCS preferred to NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR+GCS preferred to NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR+C preferred to NR</t>
   </si>
 </sst>
 </file>
@@ -392,85 +395,100 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.503597122302158</v>
+        <v>0.466267232447944</v>
       </c>
       <c r="C2" t="n">
-        <v>0.563106796116505</v>
+        <v>0.528521467316923</v>
       </c>
       <c r="D2" t="n">
-        <v>0.573643410852713</v>
+        <v>0.54298320618301</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0.55747359485376</v>
       </c>
       <c r="F2" t="n">
-        <v>0.491499227202473</v>
+        <v>0.521779060704512</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.506395266498014</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.855345911949686</v>
+        <v>0.547146463744832</v>
       </c>
       <c r="C3" t="n">
-        <v>0.735135135135135</v>
+        <v>0.78738474277188</v>
       </c>
       <c r="D3" t="n">
-        <v>0.824427480916031</v>
+        <v>0.865856512542897</v>
       </c>
       <c r="E3" t="n">
-        <v>0.734939759036145</v>
+        <v>0.753877610588178</v>
       </c>
       <c r="F3" t="n">
-        <v>0.537890044576523</v>
+        <v>0.79677790782055</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.769605840282518</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.771428571428571</v>
+        <v>0.551530613317319</v>
       </c>
       <c r="C4" t="n">
-        <v>0.752747252747253</v>
+        <v>0.762566643428049</v>
       </c>
       <c r="D4" t="n">
-        <v>0.783783783783784</v>
+        <v>0.794500153667354</v>
       </c>
       <c r="E4" t="n">
-        <v>0.738853503184713</v>
+        <v>0.746330102375747</v>
       </c>
       <c r="F4" t="n">
-        <v>0.550375939849624</v>
+        <v>0.768621148374205</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.773450102052741</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.884353741496599</v>
+        <v>0.621563662115855</v>
       </c>
       <c r="C5" t="n">
-        <v>0.809782608695652</v>
+        <v>0.851093062431084</v>
       </c>
       <c r="D5" t="n">
-        <v>0.859259259259259</v>
+        <v>0.891209997097121</v>
       </c>
       <c r="E5" t="n">
-        <v>0.865030674846626</v>
+        <v>0.836163608902924</v>
       </c>
       <c r="F5" t="n">
-        <v>0.609422492401216</v>
+        <v>0.85553619504808</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.860329350730786</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_b_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_b_positive.xlsx
@@ -404,22 +404,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.466267232447944</v>
+        <v>0.472497577007242</v>
       </c>
       <c r="C2" t="n">
-        <v>0.528521467316923</v>
+        <v>0.522355957177807</v>
       </c>
       <c r="D2" t="n">
-        <v>0.54298320618301</v>
+        <v>0.529279540224563</v>
       </c>
       <c r="E2" t="n">
-        <v>0.55747359485376</v>
+        <v>0.532729470830718</v>
       </c>
       <c r="F2" t="n">
-        <v>0.521779060704512</v>
+        <v>0.521929993436618</v>
       </c>
       <c r="G2" t="n">
-        <v>0.506395266498014</v>
+        <v>0.520300627789784</v>
       </c>
     </row>
     <row r="3">
@@ -427,22 +427,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.547146463744832</v>
+        <v>0.549841280424093</v>
       </c>
       <c r="C3" t="n">
-        <v>0.78738474277188</v>
+        <v>0.770946871428178</v>
       </c>
       <c r="D3" t="n">
-        <v>0.865856512542897</v>
+        <v>0.86140446509692</v>
       </c>
       <c r="E3" t="n">
-        <v>0.753877610588178</v>
+        <v>0.727346497000445</v>
       </c>
       <c r="F3" t="n">
-        <v>0.79677790782055</v>
+        <v>0.798827258417286</v>
       </c>
       <c r="G3" t="n">
-        <v>0.769605840282518</v>
+        <v>0.721931004385653</v>
       </c>
     </row>
     <row r="4">
@@ -450,22 +450,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.551530613317319</v>
+        <v>0.546858344549753</v>
       </c>
       <c r="C4" t="n">
-        <v>0.762566643428049</v>
+        <v>0.766658030556257</v>
       </c>
       <c r="D4" t="n">
-        <v>0.794500153667354</v>
+        <v>0.791440849972673</v>
       </c>
       <c r="E4" t="n">
-        <v>0.746330102375747</v>
+        <v>0.741908574968638</v>
       </c>
       <c r="F4" t="n">
-        <v>0.768621148374205</v>
+        <v>0.768296319190764</v>
       </c>
       <c r="G4" t="n">
-        <v>0.773450102052741</v>
+        <v>0.772088875142527</v>
       </c>
     </row>
     <row r="5">
@@ -473,22 +473,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.621563662115855</v>
+        <v>0.616284035678923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.851093062431084</v>
+        <v>0.841559600244504</v>
       </c>
       <c r="D5" t="n">
-        <v>0.891209997097121</v>
+        <v>0.877716873572847</v>
       </c>
       <c r="E5" t="n">
-        <v>0.836163608902924</v>
+        <v>0.829274464267539</v>
       </c>
       <c r="F5" t="n">
-        <v>0.85553619504808</v>
+        <v>0.857539237193396</v>
       </c>
       <c r="G5" t="n">
-        <v>0.860329350730786</v>
+        <v>0.823801494655161</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_b_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_b_positive.xlsx
@@ -404,22 +404,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.472497577007242</v>
+        <v>0.472512715667483</v>
       </c>
       <c r="C2" t="n">
-        <v>0.522355957177807</v>
+        <v>0.515377450158311</v>
       </c>
       <c r="D2" t="n">
-        <v>0.529279540224563</v>
+        <v>0.529174790889353</v>
       </c>
       <c r="E2" t="n">
-        <v>0.532729470830718</v>
+        <v>0.532760503496087</v>
       </c>
       <c r="F2" t="n">
-        <v>0.521929993436618</v>
+        <v>0.490919481564323</v>
       </c>
       <c r="G2" t="n">
-        <v>0.520300627789784</v>
+        <v>0.520312075113975</v>
       </c>
     </row>
     <row r="3">
@@ -427,22 +427,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.549841280424093</v>
+        <v>0.549945299403874</v>
       </c>
       <c r="C3" t="n">
-        <v>0.770946871428178</v>
+        <v>0.772716277532722</v>
       </c>
       <c r="D3" t="n">
-        <v>0.86140446509692</v>
+        <v>0.861384362992593</v>
       </c>
       <c r="E3" t="n">
-        <v>0.727346497000445</v>
+        <v>0.727393767309419</v>
       </c>
       <c r="F3" t="n">
-        <v>0.798827258417286</v>
+        <v>0.832743165850594</v>
       </c>
       <c r="G3" t="n">
-        <v>0.721931004385653</v>
+        <v>0.721894153943557</v>
       </c>
     </row>
     <row r="4">
@@ -450,22 +450,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.546858344549753</v>
+        <v>0.546998519360197</v>
       </c>
       <c r="C4" t="n">
-        <v>0.766658030556257</v>
+        <v>0.770223388683434</v>
       </c>
       <c r="D4" t="n">
-        <v>0.791440849972673</v>
+        <v>0.791348238675161</v>
       </c>
       <c r="E4" t="n">
-        <v>0.741908574968638</v>
+        <v>0.7419152210687</v>
       </c>
       <c r="F4" t="n">
-        <v>0.768296319190764</v>
+        <v>0.792397387102864</v>
       </c>
       <c r="G4" t="n">
-        <v>0.772088875142527</v>
+        <v>0.772122341113144</v>
       </c>
     </row>
     <row r="5">
@@ -473,22 +473,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.616284035678923</v>
+        <v>0.616278518818649</v>
       </c>
       <c r="C5" t="n">
-        <v>0.841559600244504</v>
+        <v>0.840441328944408</v>
       </c>
       <c r="D5" t="n">
-        <v>0.877716873572847</v>
+        <v>0.877676923710508</v>
       </c>
       <c r="E5" t="n">
-        <v>0.829274464267539</v>
+        <v>0.829293481343928</v>
       </c>
       <c r="F5" t="n">
-        <v>0.857539237193396</v>
+        <v>0.8401259487174</v>
       </c>
       <c r="G5" t="n">
-        <v>0.823801494655161</v>
+        <v>0.823739735276932</v>
       </c>
     </row>
   </sheetData>
